--- a/paralg/u1/a2.xlsx
+++ b/paralg/u1/a2.xlsx
@@ -4650,7 +4650,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4661,7 +4661,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4672,7 +4672,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4683,7 +4683,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4694,7 +4694,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5108,6 +5108,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/paralg/u1/a2.xlsx
+++ b/paralg/u1/a2.xlsx
@@ -108,10 +108,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -164,9 +164,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -174,15 +176,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -263,11 +267,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429971208"/>
-        <c:axId val="429968072"/>
+        <c:axId val="235509712"/>
+        <c:axId val="235514024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429971208"/>
+        <c:axId val="235509712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,20 +291,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -324,12 +336,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429968072"/>
+        <c:crossAx val="235514024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429968072"/>
+        <c:axId val="235514024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,20 +361,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -386,7 +406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429971208"/>
+        <c:crossAx val="235509712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -465,9 +485,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -475,15 +497,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -564,11 +588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="429971600"/>
-        <c:axId val="429970424"/>
+        <c:axId val="235515200"/>
+        <c:axId val="235515984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="429971600"/>
+        <c:axId val="235515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,20 +612,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -625,12 +657,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429970424"/>
+        <c:crossAx val="235515984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429970424"/>
+        <c:axId val="235515984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,20 +682,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -687,7 +727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429971600"/>
+        <c:crossAx val="235515200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -766,9 +806,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -776,15 +818,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -864,9 +908,11 @@
             <c:v>ideal</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -874,15 +920,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -960,11 +1008,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368192248"/>
-        <c:axId val="368193032"/>
+        <c:axId val="235516768"/>
+        <c:axId val="235517160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368192248"/>
+        <c:axId val="235516768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,20 +1032,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1021,12 +1077,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368193032"/>
+        <c:crossAx val="235517160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368193032"/>
+        <c:axId val="235517160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,20 +1102,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1083,7 +1147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368192248"/>
+        <c:crossAx val="235516768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,7 +1160,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1194,9 +1258,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1204,15 +1270,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1292,9 +1360,11 @@
             <c:v>linear speedup</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1302,15 +1372,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1391,11 +1463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427461096"/>
-        <c:axId val="427460704"/>
+        <c:axId val="229507248"/>
+        <c:axId val="229503720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427461096"/>
+        <c:axId val="229507248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,20 +1487,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1452,12 +1532,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427460704"/>
+        <c:crossAx val="229503720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427460704"/>
+        <c:axId val="229503720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,20 +1557,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1514,7 +1602,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427461096"/>
+        <c:crossAx val="229507248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,7 +1615,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1614,9 +1702,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1624,15 +1714,17 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1713,30 +1805,52 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422640640"/>
-        <c:axId val="429705256"/>
+        <c:axId val="229506072"/>
+        <c:axId val="229508032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422640640"/>
+        <c:axId val="229506072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1760,12 +1874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429705256"/>
+        <c:crossAx val="229508032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="429705256"/>
+        <c:axId val="229508032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,20 +1899,28 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1822,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422640640"/>
+        <c:crossAx val="229506072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2067,7 +2189,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2078,7 +2200,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2094,21 +2216,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2124,7 +2249,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2144,22 +2269,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2168,37 +2288,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2208,22 +2340,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2253,15 +2389,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2271,7 +2405,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2280,14 +2414,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2296,126 +2429,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2436,7 +2562,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2444,7 +2570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2457,6 +2583,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2464,10 +2601,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2482,17 +2619,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2500,11 +2637,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2525,20 +2665,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2552,38 +2691,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2594,7 +2716,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2610,21 +2732,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2640,7 +2765,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2660,22 +2785,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2684,37 +2804,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2724,22 +2856,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2769,15 +2905,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2787,7 +2921,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2796,14 +2930,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2812,126 +2945,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2952,7 +3078,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2960,7 +3086,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2973,6 +3099,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2980,10 +3117,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2998,17 +3135,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3016,11 +3153,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3041,20 +3181,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3068,38 +3207,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3110,7 +3232,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3126,21 +3248,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3156,7 +3281,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3176,22 +3301,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3200,37 +3320,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3240,22 +3372,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3285,15 +3421,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3303,7 +3437,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3312,14 +3446,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3328,126 +3461,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3468,7 +3594,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3476,7 +3602,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3489,6 +3615,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3496,10 +3633,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3514,17 +3651,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3532,11 +3669,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3557,20 +3697,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3584,38 +3723,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3626,7 +3748,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3642,21 +3764,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3672,7 +3797,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3692,22 +3817,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3716,37 +3836,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3756,22 +3888,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3801,15 +3937,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3819,7 +3953,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3828,14 +3962,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3844,126 +3977,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3984,7 +4110,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3992,7 +4118,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4005,6 +4131,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4012,10 +4149,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4030,17 +4167,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4048,11 +4185,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4073,20 +4213,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4100,38 +4239,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4142,7 +4264,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4158,21 +4280,24 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4188,7 +4313,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4208,22 +4333,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4232,37 +4352,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4272,22 +4404,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4317,15 +4453,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4335,7 +4469,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4344,14 +4478,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4360,126 +4493,119 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4500,7 +4626,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -4508,7 +4634,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4521,6 +4647,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4528,10 +4665,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -4546,17 +4683,17 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4564,11 +4701,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4589,20 +4729,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4616,32 +4755,15 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4705,7 +4827,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -4732,7 +4854,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -4759,7 +4881,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -4786,7 +4908,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -4813,7 +4935,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6005763"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -5112,12 +5234,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5138,12 +5260,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5184,7 +5306,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1032.7123810000001</v>
       </c>
       <c r="C5">

--- a/paralg/u1/a2.xlsx
+++ b/paralg/u1/a2.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="overhead diagram" sheetId="6" r:id="rId2"/>
-    <sheet name="cost diagram" sheetId="5" r:id="rId3"/>
-    <sheet name="efficiency diagram" sheetId="4" r:id="rId4"/>
-    <sheet name="speedup diagram" sheetId="3" r:id="rId5"/>
-    <sheet name="runtime diagram" sheetId="2" r:id="rId6"/>
+    <sheet name="serial fraction" sheetId="7" r:id="rId2"/>
+    <sheet name="overhead diagram" sheetId="6" r:id="rId3"/>
+    <sheet name="cost diagram" sheetId="5" r:id="rId4"/>
+    <sheet name="efficiency diagram" sheetId="4" r:id="rId5"/>
+    <sheet name="speedup diagram" sheetId="3" r:id="rId6"/>
+    <sheet name="runtime diagram" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -143,7 +144,398 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>experimentally determined serial fraction e</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$J$6:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15686431299352055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8956405116014608E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1627462619861619E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.607876616219554E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2314784728875043E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.244936377742492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6712356479987079E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="418340184"/>
+        <c:axId val="418336264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="418340184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418336264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="418336264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418340184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -305,6 +697,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -375,6 +823,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>overhead</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -450,7 +959,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -464,7 +973,38 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -626,6 +1166,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -696,6 +1292,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>aggregated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> time [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -771,7 +1428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -785,7 +1442,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1046,6 +1703,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1116,6 +1829,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> times faster per node</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1223,7 +1997,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1247,15 +2021,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Data!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>actual speedup</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
@@ -1501,6 +2267,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1571,6 +2393,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> times faster than sequential</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1678,7 +2561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1692,7 +2575,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1843,6 +2782,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1913,6 +2908,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2188,6 +3239,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
@@ -4253,6 +5344,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4817,6 +6424,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4958,6 +6576,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5223,8 +6868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" activeCellId="1" sqref="A6:A12 J6:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5335,6 +6980,10 @@
         <f>E5*A5-$E$2</f>
         <v>123.20070599999997</v>
       </c>
+      <c r="J5" t="e">
+        <f>(1/F5-1/A5)/(1-1/A5)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5369,6 +7018,10 @@
         <f t="shared" ref="I6:I12" si="4">E6*A6-$E$2</f>
         <v>141.15551299999993</v>
       </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J12" si="5">(1/F6-1/A6)/(1-1/A6)</f>
+        <v>0.15686431299352055</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5403,6 +7056,10 @@
         <f t="shared" si="4"/>
         <v>142.09901100000002</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>7.8956405116014608E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5437,6 +7094,10 @@
         <f t="shared" si="4"/>
         <v>139.37206300000003</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>5.1627462619861619E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5471,6 +7132,10 @@
         <f t="shared" si="4"/>
         <v>129.862979</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>3.607876616219554E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5505,6 +7170,10 @@
         <f t="shared" si="4"/>
         <v>145.39349100000004</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>3.2314784728875043E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5539,6 +7208,10 @@
         <f t="shared" si="4"/>
         <v>141.40858299999991</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>2.244936377742492E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5572,6 +7245,10 @@
       <c r="I12">
         <f t="shared" si="4"/>
         <v>135.34863900000005</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>1.6712356479987079E-2</v>
       </c>
     </row>
   </sheetData>

--- a/paralg/u1/a2.xlsx
+++ b/paralg/u1/a2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,21 @@
     <sheet name="cost diagram" sheetId="5" r:id="rId4"/>
     <sheet name="efficiency diagram" sheetId="4" r:id="rId5"/>
     <sheet name="speedup diagram" sheetId="3" r:id="rId6"/>
-    <sheet name="runtime diagram" sheetId="2" r:id="rId7"/>
+    <sheet name="diff" sheetId="8" r:id="rId7"/>
+    <sheet name="runtime diagram" sheetId="2" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="alpha" localSheetId="0">Data!$J$1</definedName>
+    <definedName name="beta" localSheetId="0">Data!$L$1</definedName>
+    <definedName name="det" localSheetId="0">Data!$G$3</definedName>
+    <definedName name="m" localSheetId="0">Data!$N$1</definedName>
+    <definedName name="n" localSheetId="0">Data!$H$1</definedName>
+    <definedName name="sumx" localSheetId="0">Data!$G$1</definedName>
+    <definedName name="sumx2" localSheetId="0">Data!$I$2</definedName>
+    <definedName name="sumxy" localSheetId="0">Data!$G$2</definedName>
+    <definedName name="sumy" localSheetId="0">Data!$I$1</definedName>
+    <definedName name="T_n_1" localSheetId="0">Data!$E$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>nodes</t>
   </si>
@@ -72,6 +85,30 @@
   </si>
   <si>
     <t>minimum</t>
+  </si>
+  <si>
+    <t>computation time</t>
+  </si>
+  <si>
+    <t>communication time</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
@@ -307,11 +344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="418340184"/>
-        <c:axId val="418336264"/>
+        <c:axId val="193671864"/>
+        <c:axId val="193673824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="418340184"/>
+        <c:axId val="193671864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418336264"/>
+        <c:crossAx val="193673824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="418336264"/>
+        <c:axId val="193673824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -446,7 +483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418340184"/>
+        <c:crossAx val="193671864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -505,7 +542,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -659,11 +695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235509712"/>
-        <c:axId val="235514024"/>
+        <c:axId val="193674216"/>
+        <c:axId val="193672256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235509712"/>
+        <c:axId val="193674216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +759,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -784,12 +819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235514024"/>
+        <c:crossAx val="193672256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235514024"/>
+        <c:axId val="193672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +889,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -915,7 +949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235509712"/>
+        <c:crossAx val="193674216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -974,7 +1008,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1128,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235515200"/>
-        <c:axId val="235515984"/>
+        <c:axId val="193667160"/>
+        <c:axId val="193669120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235515200"/>
+        <c:axId val="193667160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1253,12 +1285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235515984"/>
+        <c:crossAx val="193669120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235515984"/>
+        <c:axId val="193669120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1355,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1384,7 +1415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235515200"/>
+        <c:crossAx val="193667160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1665,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235516768"/>
-        <c:axId val="235517160"/>
+        <c:axId val="193670296"/>
+        <c:axId val="193667944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235516768"/>
+        <c:axId val="193670296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1760,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1790,12 +1820,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235517160"/>
+        <c:crossAx val="193667944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235517160"/>
+        <c:axId val="193667944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1860,7 +1890,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1921,7 +1950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235516768"/>
+        <c:crossAx val="193670296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1935,7 +1964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2229,11 +2257,501 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229507248"/>
-        <c:axId val="229503720"/>
+        <c:axId val="348533080"/>
+        <c:axId val="348533472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229507248"/>
+        <c:axId val="348533080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348533472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="348533472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> times faster than sequential</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348533080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>measured - predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$O$5:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6413606428570802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9633921428571739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70679639285714302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0035882571428658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36275464285714065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0600582321428647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1212495571428462</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348534648"/>
+        <c:axId val="348533864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348534648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,8 +2847,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2339,7 +2863,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2354,12 +2878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229503720"/>
+        <c:crossAx val="348533864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229503720"/>
+        <c:axId val="348533864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,11 +2938,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>x</a:t>
+                  <a:t>difference</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> times faster than sequential</a:t>
+                  <a:t> in runtime [s]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -2485,7 +3009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229507248"/>
+        <c:crossAx val="348534648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2497,38 +3021,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2561,7 +3053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2601,7 +3093,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2640,6 +3131,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>measured</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
@@ -2736,6 +3230,210 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$5:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1023.0581069999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514.86509635714287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.35541185714283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.10056960714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207.94766425714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173.84572735714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.21830623214285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.64185355714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>predicted (compute only)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$5:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$L$5:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1023.0581069999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>511.52905349999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341.01936899999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.76452674999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204.61162139999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.50968449999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127.88226337499999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>102.30581069999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2744,11 +3442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229506072"/>
-        <c:axId val="229508032"/>
+        <c:axId val="348537784"/>
+        <c:axId val="348534256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229506072"/>
+        <c:axId val="348537784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +3506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2869,12 +3566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229508032"/>
+        <c:crossAx val="348534256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229508032"/>
+        <c:axId val="348534256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +3631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2995,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229506072"/>
+        <c:crossAx val="348537784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3007,6 +3703,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3279,6 +4006,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
@@ -5860,6 +6627,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6434,7 +7717,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6445,7 +7739,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:ext cx="9295086" cy="6010603"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
@@ -6603,6 +7897,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304020" cy="6019800"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6866,27 +8187,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" activeCellId="1" sqref="A6:A12 J6:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1">
+        <v>6000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1">
+        <v>9.3258173076922891E-5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1">
+        <v>9.6406035370879276E-9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6903,16 +8250,27 @@
         <f>MIN(B2:D2)</f>
         <v>899.85740099999998</v>
       </c>
+      <c r="J2">
+        <v>2.3866989032471903E-4</v>
+      </c>
+      <c r="L2">
+        <v>8.5026265107540363E-9</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6944,10 +8302,19 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6984,8 +8351,24 @@
         <f>(1/F5-1/A5)/(1-1/A5)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K5">
+        <f>L5+M5</f>
+        <v>1023.0581069999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L12" si="0">ROUNDUP(n/A5,0)*T_n_1/n</f>
+        <v>1023.0581069999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M12" si="1">n*ROUNDUP(LOG10(A5),0)*(alpha+m*n*beta)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O11" si="2">E5-K5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6999,31 +8382,47 @@
         <v>523.64355699999999</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E12" si="0">MIN(B6:D6)</f>
+        <f t="shared" ref="E6:E12" si="3">MIN(B6:D6)</f>
         <v>520.50645699999995</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F12" si="1">$E$2/E6</f>
+        <f t="shared" ref="F6:F12" si="4">$E$2/E6</f>
         <v>1.7288112162650848</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G12" si="2">F6/A6</f>
+        <f t="shared" ref="G6:G12" si="5">F6/A6</f>
         <v>0.86440560813254241</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H12" si="3">E6*A6</f>
+        <f t="shared" ref="H6:H12" si="6">E6*A6</f>
         <v>1041.0129139999999</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I12" si="4">E6*A6-$E$2</f>
+        <f t="shared" ref="I6:I12" si="7">E6*A6-$E$2</f>
         <v>141.15551299999993</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J12" si="5">(1/F6-1/A6)/(1-1/A6)</f>
+        <f t="shared" ref="J6:J12" si="8">(1/F6-1/A6)/(1-1/A6)</f>
         <v>0.15686431299352055</v>
       </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K12" si="9">L6+M6</f>
+        <v>514.86509635714287</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>511.52905349999997</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>5.6413606428570802</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7037,31 +8436,47 @@
         <v>347.49315999999999</v>
       </c>
       <c r="E7">
+        <f t="shared" si="3"/>
+        <v>347.318804</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>2.5908686504632787</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>0.86362288348775962</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>1041.956412</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>142.09901100000002</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>7.8956405116014608E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>344.35541185714283</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>347.318804</v>
-      </c>
-      <c r="F7">
+        <v>341.01936899999998</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="1"/>
-        <v>2.5908686504632787</v>
-      </c>
-      <c r="G7">
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>0.86362288348775962</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>1041.956412</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>142.09901100000002</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
-        <v>7.8956405116014608E-2</v>
+        <v>2.9633921428571739</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7075,31 +8490,47 @@
         <v>260.03835299999997</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>259.807366</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>3.4635561525996148</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>0.8658890381499037</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>1039.229464</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>139.37206300000003</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>5.1627462619861619E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>259.10056960714286</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>259.807366</v>
-      </c>
-      <c r="F8">
+        <v>255.76452674999999</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>3.4635561525996148</v>
-      </c>
-      <c r="G8">
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>0.8658890381499037</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>1039.229464</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>139.37206300000003</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
-        <v>5.1627462619861619E-2</v>
+        <v>0.70679639285714302</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7113,31 +8544,47 @@
         <v>205.944076</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>205.944076</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>4.3694260037856099</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>0.87388520075712195</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>1029.72038</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>129.862979</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>3.607876616219554E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>207.94766425714286</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>205.944076</v>
-      </c>
-      <c r="F9">
+        <v>204.61162139999999</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>4.3694260037856099</v>
-      </c>
-      <c r="G9">
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>0.87388520075712195</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>1029.72038</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>129.862979</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
-        <v>3.607876616219554E-2</v>
+        <v>-2.0035882571428658</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7151,31 +8598,47 @@
         <v>174.208482</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>174.208482</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>5.1654052125889027</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>0.86090086876481708</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>1045.250892</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>145.39349100000004</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>3.2314784728875043E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>173.84572735714286</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>174.208482</v>
-      </c>
-      <c r="F10">
+        <v>170.50968449999999</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="1"/>
-        <v>5.1654052125889027</v>
-      </c>
-      <c r="G10">
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="2"/>
-        <v>0.86090086876481708</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>1045.250892</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>145.39349100000004</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="5"/>
-        <v>3.2314784728875043E-2</v>
+        <v>0.36275464285714065</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7189,31 +8652,47 @@
         <v>130.28815</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>130.15824799999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>6.9135641791982332</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>0.86419552239977915</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>1041.2659839999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>141.40858299999991</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>2.244936377742492E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>131.21830623214285</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>130.15824799999999</v>
-      </c>
-      <c r="F11">
+        <v>127.88226337499999</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="1"/>
-        <v>6.9135641791982332</v>
-      </c>
-      <c r="G11">
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="2"/>
-        <v>0.86419552239977915</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>1041.2659839999999</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>141.40858299999991</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="5"/>
-        <v>2.244936377742492E-2</v>
+        <v>-1.0600582321428647</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7227,34 +8706,51 @@
         <v>105.490179</v>
       </c>
       <c r="E12">
+        <f t="shared" si="3"/>
+        <v>103.52060400000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>8.692543959654639</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>0.86925439596546394</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>1035.20604</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>135.34863900000005</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>1.6712356479987079E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>105.64185355714285</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
-        <v>103.52060400000001</v>
-      </c>
-      <c r="F12">
+        <v>102.30581069999999</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="1"/>
-        <v>8.692543959654639</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.86925439596546394</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>1035.20604</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>135.34863900000005</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="5"/>
-        <v>1.6712356479987079E-2</v>
+        <v>3.3360428571428602</v>
+      </c>
+      <c r="O12">
+        <f>E12-K12</f>
+        <v>-2.1212495571428462</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
